--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-91968.8107410084</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17519797.43398183</v>
+        <v>16011112.70998693</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28785902.26853178</v>
+        <v>26985840.19878723</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.192582331168686e-10</v>
+        <v>994103.0285459737</v>
       </c>
     </row>
     <row r="11">
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8231,13 +8233,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8392,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9094,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9103,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9340,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9571,13 +9573,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9814,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10030,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10051,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10288,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10522,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10604,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -10996,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11470,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>70.29982587808107</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -22568,31 +22570,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
@@ -22644,34 +22646,34 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
@@ -22726,28 +22728,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -22823,13 +22825,13 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -22881,7 +22883,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>103.0555716666667</v>
@@ -22908,7 +22910,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -22963,19 +22965,19 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>112.4959374921223</v>
@@ -22984,7 +22986,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -23066,7 +23068,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -23294,16 +23296,16 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>185.3566856159496</v>
@@ -23519,7 +23521,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>191.5602121631146</v>
@@ -23537,7 +23539,7 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>175.1632494739823</v>
@@ -23592,16 +23594,16 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>115.4839025616399</v>
@@ -23613,13 +23615,13 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -23674,10 +23676,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>109.5937994785061</v>
@@ -23686,7 +23688,7 @@
         <v>112.8771994574291</v>
       </c>
       <c r="N16" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>112.4959374921223</v>
@@ -23695,7 +23697,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
         <v>148.0265635717656</v>
@@ -23756,7 +23758,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>191.5602121631146</v>
@@ -23771,13 +23773,13 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P17" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -23832,7 +23834,7 @@
         <v>80.86193375000001</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>111.9961691666667</v>
@@ -23853,10 +23855,10 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -23911,10 +23913,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K19" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>109.5937994785061</v>
@@ -23932,7 +23934,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q19" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -23990,7 +23992,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>178.8230039740467</v>
@@ -24066,10 +24068,10 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>111.9961691666667</v>
@@ -24084,7 +24086,7 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>108.8542060241433</v>
@@ -24093,7 +24095,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
@@ -24148,10 +24150,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K22" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>109.5937994785061</v>
@@ -24163,13 +24165,13 @@
         <v>103.744504878002</v>
       </c>
       <c r="O22" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
         <v>148.0265635717656</v>
@@ -24251,7 +24253,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R23" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
@@ -24303,10 +24305,10 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>111.9961691666667</v>
@@ -24330,7 +24332,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -24385,7 +24387,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J25" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
         <v>104.82327226356</v>
@@ -24406,7 +24408,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q25" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
         <v>148.0265635717656</v>
@@ -24488,7 +24490,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R26" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
@@ -24540,7 +24542,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>103.0555716666667</v>
@@ -24622,10 +24624,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J28" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>109.5937994785061</v>
@@ -24643,7 +24645,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>148.0265635717656</v>
@@ -24725,7 +24727,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R29" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
         <v>185.3566856159496</v>
@@ -24777,10 +24779,10 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>111.9961691666667</v>
@@ -24804,7 +24806,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -24859,7 +24861,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J31" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
         <v>104.82327226356</v>
@@ -24880,7 +24882,7 @@
         <v>111.9040032899324</v>
       </c>
       <c r="Q31" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
         <v>148.0265635717656</v>
@@ -24959,10 +24961,10 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q32" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -25014,16 +25016,16 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>115.4839025616399</v>
@@ -25096,10 +25098,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J34" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>109.5937994785061</v>
@@ -25114,10 +25116,10 @@
         <v>112.4959374921223</v>
       </c>
       <c r="P34" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
@@ -25196,10 +25198,10 @@
         <v>187.8768090511565</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>185.3566856159496</v>
@@ -25254,7 +25256,7 @@
         <v>80.86193375000001</v>
       </c>
       <c r="J36" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>111.9961691666667</v>
@@ -25278,7 +25280,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -25333,28 +25335,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>112.8771994574291</v>
       </c>
       <c r="N37" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>112.4959374921223</v>
       </c>
       <c r="P37" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -25436,7 +25438,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R38" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
@@ -25488,16 +25490,16 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>115.4839025616399</v>
@@ -25512,10 +25514,10 @@
         <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -25570,7 +25572,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J40" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
         <v>104.82327226356</v>
@@ -25588,10 +25590,10 @@
         <v>112.4959374921223</v>
       </c>
       <c r="P40" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -25673,7 +25675,7 @@
         <v>180.6233730229902</v>
       </c>
       <c r="R41" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -25728,10 +25730,10 @@
         <v>80.86193375000001</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>112.5754335711478</v>
@@ -25752,7 +25754,7 @@
         <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -25807,7 +25809,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
         <v>104.82327226356</v>
@@ -25877,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>411.1760772090881</v>
       </c>
       <c r="H44" t="n">
-        <v>329.4930616586638</v>
+        <v>321.6393596860628</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>141.5242915123168</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>82.01270964108606</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>81.2743314685184</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>70.54245807633525</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>52.50074545075637</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>49.56367724059345</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>57.74591815338317</v>
       </c>
       <c r="P44" t="n">
-        <v>187.8768090511565</v>
+        <v>77.60002049629389</v>
       </c>
       <c r="Q44" t="n">
-        <v>180.6233730229902</v>
+        <v>97.81009740783446</v>
       </c>
       <c r="R44" t="n">
-        <v>175.1632494739823</v>
+        <v>126.9913850495814</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>167.8816475394799</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>218.7583856958329</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>252.2751333654446</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25956,49 +25958,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>127.0309036367328</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>94.97573514563526</v>
       </c>
       <c r="I45" t="n">
-        <v>80.86193375000001</v>
+        <v>66.73498629082682</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>64.29014807201071</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>45.73988577757382</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>23.48568402129196</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>11.52036692897309</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>18.23594302922992</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>30.50273615440041</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>61.35930878861527</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3645969707207</v>
+        <v>33.71113089981824</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>143.6501389339988</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>185.1444101568237</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>216.2828503105535</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26035,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>166.8865599014431</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>154.7205238866194</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>132.4162590767394</v>
       </c>
       <c r="J46" t="n">
-        <v>103.1837799195093</v>
+        <v>35.13648522191968</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>64.85774405223553</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>58.4516830177862</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>58.95500830344886</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>51.10446290764006</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>63.87433869480827</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.0978138239248</v>
+        <v>94.29323789634184</v>
       </c>
       <c r="R46" t="n">
-        <v>148.0265635717656</v>
+        <v>132.5594663469447</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>205.5778357386506</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>229.3773828810129</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>284.2995739570064</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>62206.62633726576</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>11900.58647479838</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>63104.22552837167</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>93679.54377486851</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>118426.4429229048</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>61333.88537783636</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>30319.3240360635</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>22684.15778346633</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>30319.3240360635</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>68544.78237239184</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>72566.18468443354</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>60121.65630259749</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>34084.98469085242</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0313669918105e-11</v>
+        <v>192747.8795553689</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6220.662633726578</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1190.058647479839</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6310.422552837172</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9367.954377486854</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11842.64429229049</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6133.388537783638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3031.932403606349</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2268.415778346633</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3031.932403606349</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6854.478237239187</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7256.618468443355</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6012.165630259751</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3408.498469085243</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>21314.42937578435</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>126964.4664077942</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6220.662633726579</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1190.058647479839</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6310.422552837172</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9367.954377486856</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11842.64429229049</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6133.388537783638</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3031.932403606349</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2268.415778346633</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3031.932403606349</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6854.478237239187</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7256.618468443355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6012.165630259751</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3408.498469085243</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>918.0151733100106</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4158.541425306673</v>
       </c>
     </row>
     <row r="6">
@@ -26561,7 +26563,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-110726.5936306265</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>190.7587809773703</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>190.7587809773703</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.7668694712658096</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>7.853701972600975</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.56473529097515</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>65.08708778684657</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>97.54867250552832</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>121.0177540867794</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>134.6555690464027</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>136.8344369316367</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>129.2088786267373</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>110.2767885548626</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>82.81327561515576</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>48.17186442440096</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>17.47503807646966</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.356971110466083</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.06134955770126475</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4103113402154758</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.962743733133674</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.12694745917318</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>38.76542359465599</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>66.25628338909286</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>89.08974954985582</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>103.9635356326668</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>97.62350558188119</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>78.35146986974291</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>52.37588265627722</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.47529531618542</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>7.621353183388328</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.653842638850974</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.0269941671194392</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.3439912443854218</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.05839488189948</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.34475487660887</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>24.32018097804932</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>39.96552821132445</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>51.1421164607199</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>53.92219115398024</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>52.6400419703619</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>48.621598797314</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>41.60417741185136</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>28.80457592758292</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>15.46709722482087</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.994829231698668</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.469780771464984</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01876315878465939</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91968.8107410084</v>
+        <v>-214589.570991831</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16011112.70998693</v>
+        <v>10713923.91809432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26985840.19878723</v>
+        <v>21980028.75264426</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994103.0285459737</v>
+        <v>3672533.764971329</v>
       </c>
     </row>
     <row r="11">
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,28 +8294,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8382,16 +8382,16 @@
         <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N7" t="n">
         <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O11" t="n">
         <v>186.9547967801205</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q11" t="n">
         <v>180.6233730229902</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K14" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q14" t="n">
         <v>180.6233730229902</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P15" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9090,19 +9090,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N16" t="n">
         <v>103.744504878002</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q16" t="n">
         <v>84.9458458910769</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K17" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P17" t="n">
         <v>187.8768090511565</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
         <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q18" t="n">
         <v>113.7351914448925</v>
@@ -9327,19 +9327,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q19" t="n">
         <v>84.9458458910769</v>
@@ -9403,28 +9403,28 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,25 +9482,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
         <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9564,13 +9564,13 @@
         <v>104.82327226356</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O22" t="n">
         <v>112.4959374921223</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9719,25 +9719,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9798,22 +9798,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q25" t="n">
         <v>84.9458458910769</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9953,31 +9953,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q28" t="n">
         <v>84.9458458910769</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10193,25 +10193,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10272,22 +10272,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q32" t="n">
         <v>180.6233730229902</v>
@@ -10430,28 +10430,28 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>104.82327226356</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P34" t="n">
         <v>111.9040032899324</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q35" t="n">
         <v>180.6233730229902</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
         <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10752,13 +10752,13 @@
         <v>109.5937994785061</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N37" t="n">
         <v>103.744504878002</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P37" t="n">
         <v>111.9040032899324</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10910,16 +10910,16 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -10983,19 +10983,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P40" t="n">
         <v>111.9040032899324</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
         <v>103.0555716666667</v>
@@ -11144,22 +11144,22 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11220,25 +11220,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11457,25 +11457,25 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P46" t="n">
-        <v>70.29982587808107</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22807,28 +22807,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>89.73190363910518</v>
@@ -22886,28 +22886,28 @@
         <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>59.18642621600367</v>
@@ -22974,16 +22974,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>38.15196793284785</v>
@@ -23044,28 +23044,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>89.73190363910518</v>
@@ -23120,34 +23120,34 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -23202,28 +23202,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -23281,25 +23281,25 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23357,34 +23357,34 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -23439,28 +23439,28 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>103.1837799195093</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
         <v>148.0265635717656</v>
@@ -23518,31 +23518,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
@@ -23600,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>59.18642621600367</v>
@@ -23682,19 +23682,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>38.15196793284785</v>
@@ -23755,22 +23755,22 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -23831,28 +23831,28 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23919,19 +23919,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -23995,28 +23995,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>175.1632494739823</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>185.3566856159496</v>
@@ -24074,25 +24074,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>59.18642621600367</v>
@@ -24156,13 +24156,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24229,28 +24229,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>89.73190363910518</v>
@@ -24311,25 +24311,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>59.18642621600367</v>
@@ -24390,22 +24390,22 @@
         <v>59.456666199969</v>
       </c>
       <c r="K25" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>38.15196793284785</v>
@@ -24466,28 +24466,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>89.73190363910518</v>
@@ -24545,31 +24545,31 @@
         <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
-        <v>103.0555716666667</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
         <v>151.2714921173871</v>
@@ -24630,19 +24630,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>38.15196793284785</v>
@@ -24703,28 +24703,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>89.73190363910518</v>
@@ -24785,25 +24785,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>59.18642621600367</v>
@@ -24864,22 +24864,22 @@
         <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>38.15196793284785</v>
@@ -24940,25 +24940,25 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -25022,28 +25022,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3645969707207</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -25104,16 +25104,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25177,25 +25177,25 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25253,31 +25253,31 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>59.18642621600367</v>
@@ -25344,13 +25344,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -25414,28 +25414,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>89.73190363910518</v>
@@ -25502,16 +25502,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25575,19 +25575,19 @@
         <v>59.456666199969</v>
       </c>
       <c r="K40" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25651,28 +25651,28 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J41" t="n">
-        <v>147.0997974279326</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>178.8230039740467</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5602121631146</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>187.1563144971591</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>186.3981141722301</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>186.9547967801205</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>187.8768090511565</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>180.6233730229902</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>89.73190363910518</v>
@@ -25727,7 +25727,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>80.86193375000001</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25736,22 +25736,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>112.5754335711478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>115.4839025616399</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>115.8594486111111</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>59.18642621600367</v>
@@ -25812,25 +25812,25 @@
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>104.82327226356</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>109.5937994785061</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>112.8771994574291</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>103.744504878002</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>112.4959374921223</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>111.9040032899324</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>123.0978138239248</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -25879,49 +25879,49 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.1760772090881</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
-        <v>321.6393596860628</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>141.5242915123168</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
-        <v>82.01270964108606</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>81.2743314685184</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>70.54245807633525</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>52.50074545075637</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>49.56367724059345</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>57.74591815338317</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>77.60002049629389</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.81009740783446</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>126.9913850495814</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>167.8816475394799</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7583856958329</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2751333654446</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25958,49 +25958,49 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.0309036367328</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>94.97573514563526</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>66.73498629082682</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J45" t="n">
-        <v>64.29014807201071</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>45.73988577757382</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>23.48568402129196</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>11.52036692897309</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>18.23594302922992</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>30.50273615440041</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>61.35930878861527</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>33.71113089981824</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>143.6501389339988</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>185.1444101568237</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>216.2828503105535</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
@@ -26037,49 +26037,49 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.8865599014431</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>154.7205238866194</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>132.4162590767394</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>35.13648522191968</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>64.85774405223553</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>58.4516830177862</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>58.95500830344886</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>51.10446290764006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>63.87433869480827</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.29323789634184</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R46" t="n">
-        <v>132.5594663469447</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>205.5778357386506</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T46" t="n">
-        <v>229.3773828810129</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2995739570064</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62206.62633726576</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11900.58647479838</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>63104.22552837167</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>93679.54377486851</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>118426.4429229048</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61333.88537783636</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30319.3240360635</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22684.15778346633</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30319.3240360635</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68544.78237239184</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>72566.18468443354</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>60121.65630259749</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34084.98469085242</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>192747.8795553689</v>
+        <v>317607.4307414178</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>31760.7430741418</v>
       </c>
       <c r="C2" t="n">
-        <v>6220.662633726578</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.058647479839</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="E2" t="n">
-        <v>6310.422552837172</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="F2" t="n">
-        <v>9367.954377486854</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="G2" t="n">
-        <v>11842.64429229049</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="H2" t="n">
-        <v>6133.388537783638</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="I2" t="n">
-        <v>3031.932403606349</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="J2" t="n">
-        <v>2268.415778346633</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="K2" t="n">
-        <v>3031.932403606349</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="L2" t="n">
-        <v>6854.478237239187</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="M2" t="n">
-        <v>7256.618468443355</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="N2" t="n">
-        <v>6012.165630259751</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="O2" t="n">
-        <v>3408.498469085243</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="P2" t="n">
-        <v>21314.42937578435</v>
+        <v>31760.7430741418</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>126964.4664077942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>31760.7430741418</v>
       </c>
       <c r="C4" t="n">
-        <v>6220.662633726579</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="D4" t="n">
-        <v>1190.058647479839</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="E4" t="n">
-        <v>6310.422552837172</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="F4" t="n">
-        <v>9367.954377486856</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="G4" t="n">
-        <v>11842.64429229049</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="H4" t="n">
-        <v>6133.388537783638</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="I4" t="n">
-        <v>3031.932403606349</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="J4" t="n">
-        <v>2268.415778346633</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="K4" t="n">
-        <v>3031.932403606349</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="L4" t="n">
-        <v>6854.478237239187</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="M4" t="n">
-        <v>7256.618468443355</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="N4" t="n">
-        <v>6012.165630259751</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="O4" t="n">
-        <v>3408.498469085243</v>
+        <v>31760.7430741418</v>
       </c>
       <c r="P4" t="n">
-        <v>918.0151733100106</v>
+        <v>31760.7430741418</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4158.541425306673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48280.95250176286</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-14653.35250176286</v>
       </c>
       <c r="P6" t="n">
-        <v>-110726.5936306265</v>
+        <v>-14653.35250176286</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>190.7587809773703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>190.7587809773703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7668694712658096</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>7.853701972600975</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.56473529097515</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>65.08708778684657</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>97.54867250552832</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>121.0177540867794</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>134.6555690464027</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>136.8344369316367</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>129.2088786267373</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>110.2767885548626</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.81327561515576</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>48.17186442440096</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.47503807646966</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>3.356971110466083</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06134955770126475</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4103113402154758</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.962743733133674</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>14.12694745917318</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>38.76542359465599</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>66.25628338909286</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>89.08974954985582</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>103.9635356326668</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>106.7151410677083</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>97.62350558188119</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>78.35146986974291</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.37588265627722</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.47529531618542</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>7.621353183388328</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.653842638850974</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0269941671194392</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3439912443854218</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.05839488189948</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>10.34475487660887</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.32018097804932</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>39.96552821132445</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>51.1421164607199</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>53.92219115398024</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>52.6400419703619</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>48.621598797314</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>41.60417741185136</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.80457592758292</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>15.46709722482087</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.994829231698668</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.469780771464984</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01876315878465939</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
